--- a/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,36 +53,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="true"/>
-    <col min="2" max="2" width="6.90625" customWidth="true"/>
-    <col min="3" max="3" width="15.453125" customWidth="true"/>
-    <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="12.08984375" customWidth="true"/>
-    <col min="6" max="6" width="13.08984375" customWidth="true"/>
-    <col min="7" max="7" width="12.453125" customWidth="true"/>
-    <col min="8" max="8" width="15.7265625" customWidth="true"/>
-    <col min="9" max="9" width="15.7265625" customWidth="true"/>
-    <col min="10" max="10" width="15.08984375" customWidth="true"/>
-    <col min="11" max="11" width="15.7265625" customWidth="true"/>
-    <col min="12" max="12" width="15.08984375" customWidth="true"/>
-    <col min="13" max="13" width="9.453125" customWidth="true"/>
-    <col min="14" max="14" width="10.08984375" customWidth="true"/>
-    <col min="15" max="15" width="15.7265625" customWidth="true"/>
-    <col min="16" max="16" width="15.7265625" customWidth="true"/>
-    <col min="17" max="17" width="11.453125" customWidth="true"/>
-    <col min="18" max="18" width="16.08984375" customWidth="true"/>
-    <col min="19" max="19" width="15.7265625" customWidth="true"/>
-    <col min="20" max="20" width="1.90625" customWidth="true"/>
-    <col min="21" max="21" width="6.90625" customWidth="true"/>
-    <col min="22" max="22" width="15.7265625" customWidth="true"/>
-    <col min="23" max="23" width="1.90625" customWidth="true"/>
-    <col min="24" max="24" width="1.90625" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" customWidth="true"/>
+    <col min="2" max="2" width="7.140625" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.42578125" customWidth="true"/>
+    <col min="6" max="6" width="13.42578125" customWidth="true"/>
+    <col min="7" max="7" width="13.42578125" customWidth="true"/>
+    <col min="8" max="8" width="16.28515625" customWidth="true"/>
+    <col min="9" max="9" width="16.28515625" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="16.28515625" customWidth="true"/>
+    <col min="12" max="12" width="15.5703125" customWidth="true"/>
+    <col min="13" max="13" width="9.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.42578125" customWidth="true"/>
+    <col min="15" max="15" width="16.28515625" customWidth="true"/>
+    <col min="16" max="16" width="16.28515625" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="16.42578125" customWidth="true"/>
+    <col min="19" max="19" width="16.28515625" customWidth="true"/>
+    <col min="20" max="20" width="2.140625" customWidth="true"/>
+    <col min="21" max="21" width="7.140625" customWidth="true"/>
+    <col min="22" max="22" width="16.28515625" customWidth="true"/>
+    <col min="23" max="23" width="2.140625" customWidth="true"/>
+    <col min="24" max="24" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -309,61 +309,61 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0">
         <v>230400</v>
       </c>
       <c r="C4" s="0">
-        <v>0.010884177521800001</v>
+        <v>0.017754194443110001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.96002086625390004</v>
+        <v>0.93416872655140004</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.5384522180950002</v>
+        <v>1.4416198075140001</v>
       </c>
       <c r="F4" s="0">
-        <v>2.9003765314560002</v>
+        <v>1.121031517222</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.12742281697460001</v>
+        <v>2.5058526832800001</v>
       </c>
       <c r="H4" s="0">
-        <v>1.5679224531210001e-10</v>
+        <v>-3.857303529318e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-8.6792900986989997e-09</v>
+        <v>-8.220342410257e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>4.7776990103409999e-09</v>
+        <v>5.5895185401690001e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>5.345791578293e-06</v>
+        <v>-1.7061829566960001e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>2.4400651454930001e-06</v>
+        <v>5.6736171245569996e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>335.59375</v>
+        <v>252.8125</v>
       </c>
       <c r="N4" s="0">
-        <v>104.90625</v>
+        <v>-28.09375</v>
       </c>
       <c r="O4" s="0">
-        <v>1.9557774066929999e-07</v>
+        <v>1.098960638046e-07</v>
       </c>
       <c r="P4" s="0">
-        <v>-1.210719347e-07</v>
+        <v>-2.5890767574310001e-07</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6965045930001</v>
+        <v>5153.6466884609999</v>
       </c>
       <c r="R4" s="0">
-        <v>0.00067827198654410003</v>
+        <v>-0.000216418877244</v>
       </c>
       <c r="S4" s="0">
-        <v>2.0463630789890001e-12</v>
+        <v>1.375610736432e-11</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -372,7 +372,7 @@
         <v>230400</v>
       </c>
       <c r="V4" s="0">
-        <v>-1.5366822481160001e-08</v>
+        <v>2.3283064365389999e-09</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,61 +383,61 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0">
         <v>230400</v>
       </c>
       <c r="C5" s="0">
-        <v>0.017754194443110001</v>
+        <v>0.0127831188729</v>
       </c>
       <c r="D5" s="0">
-        <v>0.93416872655140004</v>
+        <v>0.9479454605905</v>
       </c>
       <c r="E5" s="0">
-        <v>1.4416198075140001</v>
+        <v>2.5733316844049998</v>
       </c>
       <c r="F5" s="0">
-        <v>1.121031517222</v>
+        <v>1.1414266652759999</v>
       </c>
       <c r="G5" s="0">
-        <v>2.5058526832800001</v>
+        <v>0.7913284938938</v>
       </c>
       <c r="H5" s="0">
-        <v>-3.857303529318e-10</v>
+        <v>-5.5073722613040005e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.220342410257e-09</v>
+        <v>-8.1503394943549994e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>5.5895185401690001e-09</v>
+        <v>4.5609042656839999e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.7061829566960001e-06</v>
+        <v>3.3602118492130001e-06</v>
       </c>
       <c r="L5" s="0">
-        <v>5.6736171245569996e-06</v>
+        <v>1.333653926849e-05</v>
       </c>
       <c r="M5" s="0">
-        <v>252.8125</v>
+        <v>116.375</v>
       </c>
       <c r="N5" s="0">
-        <v>-28.09375</v>
+        <v>61.71875</v>
       </c>
       <c r="O5" s="0">
-        <v>1.098960638046e-07</v>
+        <v>-1.9371509552e-07</v>
       </c>
       <c r="P5" s="0">
-        <v>-2.5890767574310001e-07</v>
+        <v>3.3527612686159999e-08</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.6466884609999</v>
+        <v>5153.7757854459996</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.000216418877244</v>
+        <v>0.00045836996287109999</v>
       </c>
       <c r="S5" s="0">
-        <v>1.375610736432e-11</v>
+        <v>-2.1600499167109998e-12</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -446,7 +446,7 @@
         <v>230400</v>
       </c>
       <c r="V5" s="0">
-        <v>2.3283064365389999e-09</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,61 +457,61 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0">
         <v>230400</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0127831188729</v>
+        <v>0.01081502647139</v>
       </c>
       <c r="D6" s="0">
-        <v>0.9479454605905</v>
+        <v>0.92864041179489998</v>
       </c>
       <c r="E6" s="0">
-        <v>2.5733316844049998</v>
+        <v>2.5005394218700001</v>
       </c>
       <c r="F6" s="0">
-        <v>1.1414266652759999</v>
+        <v>0.68460703128220002</v>
       </c>
       <c r="G6" s="0">
-        <v>0.7913284938938</v>
+        <v>-0.056584424899850001</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.5073722613040005e-10</v>
+        <v>-4.9430630412740004e-10</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.1503394943549994e-09</v>
+        <v>-8.3732059204930004e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>4.5609042656839999e-09</v>
+        <v>5.1716439911589999e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>3.3602118492130001e-06</v>
+        <v>2.2854655981060001e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>1.333653926849e-05</v>
+        <v>1.153722405434e-05</v>
       </c>
       <c r="M6" s="0">
-        <v>116.375</v>
+        <v>137.59375</v>
       </c>
       <c r="N6" s="0">
-        <v>61.71875</v>
+        <v>41.25</v>
       </c>
       <c r="O6" s="0">
-        <v>-1.9371509552e-07</v>
+        <v>5.0291419029240002e-08</v>
       </c>
       <c r="P6" s="0">
-        <v>3.3527612686159999e-08</v>
+        <v>1.601874828339e-07</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.7757854459996</v>
+        <v>5153.6746253970005</v>
       </c>
       <c r="R6" s="0">
-        <v>0.00045836996287109999</v>
+        <v>-0.0002883756533265</v>
       </c>
       <c r="S6" s="0">
-        <v>-2.1600499167109998e-12</v>
+        <v>-5.6843418860810002e-12</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>230400</v>
       </c>
       <c r="V6" s="0">
-        <v>5.5879354476930001e-09</v>
+        <v>6.5192580223079997e-09</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -677,6 +677,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0">
+        <v>230384</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.01091852784157</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.95401556852059999</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1.572403020463</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.91684223788499997</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.4972995749577</v>
+      </c>
+      <c r="H9" s="0">
+        <v>-5.3716523223089998e-10</v>
+      </c>
+      <c r="I9" s="0">
+        <v>-8.4303511579639993e-09</v>
+      </c>
+      <c r="J9" s="0">
+        <v>5.1980736634899997e-09</v>
+      </c>
+      <c r="K9" s="0">
+        <v>-1.421198248863e-06</v>
+      </c>
+      <c r="L9" s="0">
+        <v>6.7427754402160001e-06</v>
+      </c>
+      <c r="M9" s="0">
+        <v>247.28125</v>
+      </c>
+      <c r="N9" s="0">
+        <v>-31.9375</v>
+      </c>
+      <c r="O9" s="0">
+        <v>-1.2293457984919999e-07</v>
+      </c>
+      <c r="P9" s="0">
+        <v>8.9406967163090001e-08</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>5153.73871994</v>
+      </c>
+      <c r="R9" s="0">
+        <v>-0.0001800009049475</v>
+      </c>
+      <c r="S9" s="0">
+        <v>1.932676241267e-12</v>
+      </c>
+      <c r="T9" s="0">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0">
+        <v>230384</v>
+      </c>
+      <c r="V9" s="0">
+        <v>-1.350417733192e-08</v>
+      </c>
+      <c r="W9" s="0">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,36 +53,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true"/>
-    <col min="2" max="2" width="7.140625" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.42578125" customWidth="true"/>
-    <col min="6" max="6" width="13.42578125" customWidth="true"/>
-    <col min="7" max="7" width="13.42578125" customWidth="true"/>
-    <col min="8" max="8" width="16.28515625" customWidth="true"/>
-    <col min="9" max="9" width="16.28515625" customWidth="true"/>
-    <col min="10" max="10" width="15.5703125" customWidth="true"/>
-    <col min="11" max="11" width="16.28515625" customWidth="true"/>
-    <col min="12" max="12" width="15.5703125" customWidth="true"/>
-    <col min="13" max="13" width="9.7109375" customWidth="true"/>
-    <col min="14" max="14" width="10.42578125" customWidth="true"/>
-    <col min="15" max="15" width="16.28515625" customWidth="true"/>
-    <col min="16" max="16" width="16.28515625" customWidth="true"/>
-    <col min="17" max="17" width="11.7109375" customWidth="true"/>
-    <col min="18" max="18" width="16.42578125" customWidth="true"/>
-    <col min="19" max="19" width="16.28515625" customWidth="true"/>
-    <col min="20" max="20" width="2.140625" customWidth="true"/>
-    <col min="21" max="21" width="7.140625" customWidth="true"/>
-    <col min="22" max="22" width="16.28515625" customWidth="true"/>
-    <col min="23" max="23" width="2.140625" customWidth="true"/>
-    <col min="24" max="24" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="2.90625" customWidth="true"/>
+    <col min="2" max="2" width="6.90625" customWidth="true"/>
+    <col min="3" max="3" width="15.453125" customWidth="true"/>
+    <col min="4" max="4" width="12.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.08984375" customWidth="true"/>
+    <col min="6" max="6" width="13.08984375" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
+    <col min="8" max="8" width="15.7265625" customWidth="true"/>
+    <col min="9" max="9" width="15.7265625" customWidth="true"/>
+    <col min="10" max="10" width="15.08984375" customWidth="true"/>
+    <col min="11" max="11" width="15.7265625" customWidth="true"/>
+    <col min="12" max="12" width="15.08984375" customWidth="true"/>
+    <col min="13" max="13" width="9.453125" customWidth="true"/>
+    <col min="14" max="14" width="10.08984375" customWidth="true"/>
+    <col min="15" max="15" width="15.7265625" customWidth="true"/>
+    <col min="16" max="16" width="15.7265625" customWidth="true"/>
+    <col min="17" max="17" width="11.453125" customWidth="true"/>
+    <col min="18" max="18" width="16.08984375" customWidth="true"/>
+    <col min="19" max="19" width="15.7265625" customWidth="true"/>
+    <col min="20" max="20" width="1.90625" customWidth="true"/>
+    <col min="21" max="21" width="6.90625" customWidth="true"/>
+    <col min="22" max="22" width="15.7265625" customWidth="true"/>
+    <col min="23" max="23" width="1.90625" customWidth="true"/>
+    <col min="24" max="24" width="1.90625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -309,61 +309,61 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0">
         <v>230400</v>
       </c>
       <c r="C4" s="0">
-        <v>0.017754194443110001</v>
+        <v>0.010884177521800001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.93416872655140004</v>
+        <v>0.96002086625390004</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4416198075140001</v>
+        <v>-2.5384522180950002</v>
       </c>
       <c r="F4" s="0">
-        <v>1.121031517222</v>
+        <v>2.9003765314560002</v>
       </c>
       <c r="G4" s="0">
-        <v>2.5058526832800001</v>
+        <v>-0.12742281697460001</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.857303529318e-10</v>
+        <v>1.5679224531210001e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-8.220342410257e-09</v>
+        <v>-8.6792900986989997e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>5.5895185401690001e-09</v>
+        <v>4.7776990103409999e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.7061829566960001e-06</v>
+        <v>5.345791578293e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>5.6736171245569996e-06</v>
+        <v>2.4400651454930001e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>252.8125</v>
+        <v>335.59375</v>
       </c>
       <c r="N4" s="0">
-        <v>-28.09375</v>
+        <v>104.90625</v>
       </c>
       <c r="O4" s="0">
-        <v>1.098960638046e-07</v>
+        <v>1.9557774066929999e-07</v>
       </c>
       <c r="P4" s="0">
-        <v>-2.5890767574310001e-07</v>
+        <v>-1.210719347e-07</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6466884609999</v>
+        <v>5153.6965045930001</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.000216418877244</v>
+        <v>0.00067827198654410003</v>
       </c>
       <c r="S4" s="0">
-        <v>1.375610736432e-11</v>
+        <v>2.0463630789890001e-12</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -372,7 +372,7 @@
         <v>230400</v>
       </c>
       <c r="V4" s="0">
-        <v>2.3283064365389999e-09</v>
+        <v>-1.5366822481160001e-08</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,61 +383,61 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0">
         <v>230400</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0127831188729</v>
+        <v>0.017754194443110001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.9479454605905</v>
+        <v>0.93416872655140004</v>
       </c>
       <c r="E5" s="0">
-        <v>2.5733316844049998</v>
+        <v>1.4416198075140001</v>
       </c>
       <c r="F5" s="0">
-        <v>1.1414266652759999</v>
+        <v>1.121031517222</v>
       </c>
       <c r="G5" s="0">
-        <v>0.7913284938938</v>
+        <v>2.5058526832800001</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5073722613040005e-10</v>
+        <v>-3.857303529318e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.1503394943549994e-09</v>
+        <v>-8.220342410257e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>4.5609042656839999e-09</v>
+        <v>5.5895185401690001e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>3.3602118492130001e-06</v>
+        <v>-1.7061829566960001e-06</v>
       </c>
       <c r="L5" s="0">
-        <v>1.333653926849e-05</v>
+        <v>5.6736171245569996e-06</v>
       </c>
       <c r="M5" s="0">
-        <v>116.375</v>
+        <v>252.8125</v>
       </c>
       <c r="N5" s="0">
-        <v>61.71875</v>
+        <v>-28.09375</v>
       </c>
       <c r="O5" s="0">
-        <v>-1.9371509552e-07</v>
+        <v>1.098960638046e-07</v>
       </c>
       <c r="P5" s="0">
-        <v>3.3527612686159999e-08</v>
+        <v>-2.5890767574310001e-07</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.7757854459996</v>
+        <v>5153.6466884609999</v>
       </c>
       <c r="R5" s="0">
-        <v>0.00045836996287109999</v>
+        <v>-0.000216418877244</v>
       </c>
       <c r="S5" s="0">
-        <v>-2.1600499167109998e-12</v>
+        <v>1.375610736432e-11</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -446,7 +446,7 @@
         <v>230400</v>
       </c>
       <c r="V5" s="0">
-        <v>5.5879354476930001e-09</v>
+        <v>2.3283064365389999e-09</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,61 +457,61 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0">
         <v>230400</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01081502647139</v>
+        <v>0.0127831188729</v>
       </c>
       <c r="D6" s="0">
-        <v>0.92864041179489998</v>
+        <v>0.9479454605905</v>
       </c>
       <c r="E6" s="0">
-        <v>2.5005394218700001</v>
+        <v>2.5733316844049998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.68460703128220002</v>
+        <v>1.1414266652759999</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.056584424899850001</v>
+        <v>0.7913284938938</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.9430630412740004e-10</v>
+        <v>-5.5073722613040005e-10</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.3732059204930004e-09</v>
+        <v>-8.1503394943549994e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>5.1716439911589999e-09</v>
+        <v>4.5609042656839999e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>2.2854655981060001e-06</v>
+        <v>3.3602118492130001e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>1.153722405434e-05</v>
+        <v>1.333653926849e-05</v>
       </c>
       <c r="M6" s="0">
-        <v>137.59375</v>
+        <v>116.375</v>
       </c>
       <c r="N6" s="0">
-        <v>41.25</v>
+        <v>61.71875</v>
       </c>
       <c r="O6" s="0">
-        <v>5.0291419029240002e-08</v>
+        <v>-1.9371509552e-07</v>
       </c>
       <c r="P6" s="0">
-        <v>1.601874828339e-07</v>
+        <v>3.3527612686159999e-08</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.6746253970005</v>
+        <v>5153.7757854459996</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.0002883756533265</v>
+        <v>0.00045836996287109999</v>
       </c>
       <c r="S6" s="0">
-        <v>-5.6843418860810002e-12</v>
+        <v>-2.1600499167109998e-12</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>230400</v>
       </c>
       <c r="V6" s="0">
-        <v>6.5192580223079997e-09</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -677,80 +677,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0">
-        <v>230384</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.01091852784157</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.95401556852059999</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1.572403020463</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.91684223788499997</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.4972995749577</v>
-      </c>
-      <c r="H9" s="0">
-        <v>-5.3716523223089998e-10</v>
-      </c>
-      <c r="I9" s="0">
-        <v>-8.4303511579639993e-09</v>
-      </c>
-      <c r="J9" s="0">
-        <v>5.1980736634899997e-09</v>
-      </c>
-      <c r="K9" s="0">
-        <v>-1.421198248863e-06</v>
-      </c>
-      <c r="L9" s="0">
-        <v>6.7427754402160001e-06</v>
-      </c>
-      <c r="M9" s="0">
-        <v>247.28125</v>
-      </c>
-      <c r="N9" s="0">
-        <v>-31.9375</v>
-      </c>
-      <c r="O9" s="0">
-        <v>-1.2293457984919999e-07</v>
-      </c>
-      <c r="P9" s="0">
-        <v>8.9406967163090001e-08</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>5153.73871994</v>
-      </c>
-      <c r="R9" s="0">
-        <v>-0.0001800009049475</v>
-      </c>
-      <c r="S9" s="0">
-        <v>1.932676241267e-12</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0">
-        <v>230384</v>
-      </c>
-      <c r="V9" s="0">
-        <v>-1.350417733192e-08</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -63,7 +63,7 @@
     <col min="2" max="2" width="6.90625" customWidth="true"/>
     <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="13.08984375" customWidth="true"/>
+    <col min="5" max="5" width="12.08984375" customWidth="true"/>
     <col min="6" max="6" width="13.08984375" customWidth="true"/>
     <col min="7" max="7" width="13.08984375" customWidth="true"/>
     <col min="8" max="8" width="15.7265625" customWidth="true"/>
@@ -90,55 +90,55 @@
         <v>6</v>
       </c>
       <c r="B1" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0037381647853179999</v>
+        <v>0.0037378844572229998</v>
       </c>
       <c r="D1" s="0">
-        <v>0.98729716255830002</v>
+        <v>0.98729500475410004</v>
       </c>
       <c r="E1" s="0">
-        <v>-1.568550449108</v>
+        <v>-1.568608880982</v>
       </c>
       <c r="F1" s="0">
-        <v>-0.68807013727160005</v>
+        <v>-0.68788719643999996</v>
       </c>
       <c r="G1" s="0">
-        <v>1.4523981651390001</v>
+        <v>2.50238026728</v>
       </c>
       <c r="H1" s="0">
-        <v>-2.7536861679780001e-10</v>
+        <v>-3.235849071817e-10</v>
       </c>
       <c r="I1" s="0">
-        <v>-8.1781976746240003e-09</v>
+        <v>-8.1431963396710001e-09</v>
       </c>
       <c r="J1" s="0">
-        <v>4.0151673097450002e-09</v>
+        <v>4.0123099859589997e-09</v>
       </c>
       <c r="K1" s="0">
-        <v>-5.5860728025440001e-06</v>
+        <v>-5.3606927394870001e-06</v>
       </c>
       <c r="L1" s="0">
-        <v>2.328306436539e-06</v>
+        <v>2.6915222406390001e-06</v>
       </c>
       <c r="M1" s="0">
-        <v>346.40625</v>
+        <v>341.90625</v>
       </c>
       <c r="N1" s="0">
-        <v>-109.09375</v>
+        <v>-106.0625</v>
       </c>
       <c r="O1" s="0">
-        <v>9.6857547760010004e-08</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="P1" s="0">
-        <v>6.5192580223080002e-08</v>
+        <v>6.7055225372310006e-08</v>
       </c>
       <c r="Q1" s="0">
-        <v>5153.6926651000004</v>
+        <v>5153.6940460209998</v>
       </c>
       <c r="R1" s="0">
-        <v>-0.00058284215629099997</v>
+        <v>-0.00058288965374230005</v>
       </c>
       <c r="S1" s="0">
         <v>-6.5938365878540003e-12</v>
@@ -147,7 +147,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V1" s="0">
         <v>3.7252902984620001e-09</v>
@@ -161,70 +161,70 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C2" s="0">
-        <v>0.01089031226002</v>
+        <v>0.0022920262999830002</v>
       </c>
       <c r="D2" s="0">
-        <v>0.99202595893739998</v>
+        <v>0.96414443879440004</v>
       </c>
       <c r="E2" s="0">
-        <v>-0.53467016107830001</v>
+        <v>-1.547823931091</v>
       </c>
       <c r="F2" s="0">
-        <v>-2.290195599359</v>
+        <v>-2.2720009229409999</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.94360656991549996</v>
+        <v>-2.8288157913949998</v>
       </c>
       <c r="H2" s="0">
-        <v>2.2465221349850001e-10</v>
+        <v>-2.625109346341e-10</v>
       </c>
       <c r="I2" s="0">
-        <v>-7.5567436752520006e-09</v>
+        <v>-8.3796347597090008e-09</v>
       </c>
       <c r="J2" s="0">
-        <v>3.5462190961509999e-09</v>
+        <v>4.4784008290849996e-09</v>
       </c>
       <c r="K2" s="0">
-        <v>-4.3008476495740003e-06</v>
+        <v>-5.7686120271680003e-06</v>
       </c>
       <c r="L2" s="0">
-        <v>1.1283904314039999e-05</v>
+        <v>2.2631138563159999e-06</v>
       </c>
       <c r="M2" s="0">
-        <v>177.46875</v>
+        <v>336.8125</v>
       </c>
       <c r="N2" s="0">
-        <v>-85.9375</v>
+        <v>-113.90625</v>
       </c>
       <c r="O2" s="0">
-        <v>1.5459954738620001e-07</v>
+        <v>-1.862645149231e-09</v>
       </c>
       <c r="P2" s="0">
-        <v>1.7881393432620001e-07</v>
+        <v>3.5390257835389997e-08</v>
       </c>
       <c r="Q2" s="0">
-        <v>5153.6533622739999</v>
+        <v>5153.7582874299997</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.00056899478659030002</v>
+        <v>-0.0005242908373475</v>
       </c>
       <c r="S2" s="0">
-        <v>-4.4337866711430001e-12</v>
+        <v>1.352873368887e-11</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V2" s="0">
-        <v>2.3283064365389999e-09</v>
+        <v>-8.8475644588469996e-09</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -235,70 +235,70 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0022915215231480001</v>
+        <v>0.0089779596310109993</v>
       </c>
       <c r="D3" s="0">
-        <v>0.96414604215260003</v>
+        <v>0.95972974994490001</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.5477636456999999</v>
+        <v>2.6661020624009999</v>
       </c>
       <c r="F3" s="0">
-        <v>-2.271847824175</v>
+        <v>1.525928621989</v>
       </c>
       <c r="G3" s="0">
-        <v>2.4040876514890002</v>
+        <v>0.88426771165380003</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.3322400043e-10</v>
+        <v>-4.0394539737579998e-10</v>
       </c>
       <c r="I3" s="0">
-        <v>-8.4257081074200004e-09</v>
+        <v>-7.9442594817229992e-09</v>
       </c>
       <c r="J3" s="0">
-        <v>4.4819724064270001e-09</v>
+        <v>4.2508913524019998e-09</v>
       </c>
       <c r="K3" s="0">
-        <v>-5.6382268667220002e-06</v>
+        <v>4.4163316488269998e-06</v>
       </c>
       <c r="L3" s="0">
-        <v>2.0246952772139999e-06</v>
+        <v>1.3150274753569999e-05</v>
       </c>
       <c r="M3" s="0">
-        <v>341.28125</v>
+        <v>126.21875</v>
       </c>
       <c r="N3" s="0">
-        <v>-110.75</v>
+        <v>86.6875</v>
       </c>
       <c r="O3" s="0">
-        <v>2.0489096641540001e-08</v>
+        <v>-1.4901161193849999e-07</v>
       </c>
       <c r="P3" s="0">
-        <v>-1.862645149231e-08</v>
+        <v>-6.1467289924619994e-08</v>
       </c>
       <c r="Q3" s="0">
-        <v>5153.7593441010004</v>
+        <v>5153.602905273</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.00052438862621780004</v>
+        <v>-0.00060453405603769998</v>
       </c>
       <c r="S3" s="0">
-        <v>1.352873368887e-11</v>
+        <v>-6.8212102632970002e-13</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V3" s="0">
-        <v>-8.8475644588469996e-09</v>
+        <v>-1.2572854757310001e-08</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -309,70 +309,70 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0089765276061369997</v>
+        <v>0.017754194443110001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.95973250169379998</v>
+        <v>0.93416872655140004</v>
       </c>
       <c r="E4" s="0">
-        <v>2.666158849955</v>
+        <v>1.4416198075140001</v>
       </c>
       <c r="F4" s="0">
-        <v>1.5259590814070001</v>
+        <v>1.121031517222</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.16598454171669999</v>
+        <v>2.5058526832800001</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.132273329598e-10</v>
+        <v>-3.857303529318e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-7.9389019802529995e-09</v>
+        <v>-8.220342410257e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>4.2741064021360003e-09</v>
+        <v>5.5895185401690001e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>4.3120235204700001e-06</v>
+        <v>-1.7061829566960001e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>1.245923340321e-05</v>
+        <v>5.6736171245569996e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>140</v>
+        <v>252.8125</v>
       </c>
       <c r="N4" s="0">
-        <v>82.84375</v>
+        <v>-28.09375</v>
       </c>
       <c r="O4" s="0">
-        <v>-1.7508864402770001e-07</v>
+        <v>1.098960638046e-07</v>
       </c>
       <c r="P4" s="0">
-        <v>8.1956386566160005e-08</v>
+        <v>-2.5890767574310001e-07</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6005229949997</v>
+        <v>5153.6466884609999</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.00060452939942480001</v>
+        <v>-0.000216418877244</v>
       </c>
       <c r="S4" s="0">
-        <v>-6.8212102632970002e-13</v>
+        <v>1.375610736432e-11</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V4" s="0">
-        <v>-1.2572854757310001e-08</v>
+        <v>2.3283064365389999e-09</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,70 +383,70 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01308319997042</v>
+        <v>0.0127831188729</v>
       </c>
       <c r="D5" s="0">
-        <v>0.96085623197600001</v>
+        <v>0.9479454605905</v>
       </c>
       <c r="E5" s="0">
-        <v>-2.582339301117</v>
+        <v>2.5733316844049998</v>
       </c>
       <c r="F5" s="0">
-        <v>-1.154590018246</v>
+        <v>1.1414266652759999</v>
       </c>
       <c r="G5" s="0">
-        <v>-3.0822961599730001</v>
+        <v>0.7913284938938</v>
       </c>
       <c r="H5" s="0">
-        <v>2.582250524519e-10</v>
+        <v>-5.5073722613040005e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.1996276435349998e-09</v>
+        <v>-8.1503394943549994e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>4.581976575935e-09</v>
+        <v>4.5609042656839999e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>7.0389360189440001e-06</v>
+        <v>3.3602118492130001e-06</v>
       </c>
       <c r="L5" s="0">
-        <v>2.5555491447450001e-06</v>
+        <v>1.333653926849e-05</v>
       </c>
       <c r="M5" s="0">
-        <v>332.78125</v>
+        <v>116.375</v>
       </c>
       <c r="N5" s="0">
-        <v>135.78125</v>
+        <v>61.71875</v>
       </c>
       <c r="O5" s="0">
-        <v>8.7544322013850004e-08</v>
+        <v>-1.9371509552e-07</v>
       </c>
       <c r="P5" s="0">
-        <v>3.7252902984620001e-08</v>
+        <v>3.3527612686159999e-08</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.8019065859999</v>
+        <v>5153.7757854459996</v>
       </c>
       <c r="R5" s="0">
-        <v>1.30282714963e-05</v>
+        <v>0.00045836996287109999</v>
       </c>
       <c r="S5" s="0">
-        <v>-1.273292582482e-11</v>
+        <v>-2.1600499167109998e-12</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V5" s="0">
-        <v>-1.1175870895390001e-08</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,70 +457,70 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0">
-        <v>223184</v>
+        <v>230400</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01088333071675</v>
+        <v>0.01081502647139</v>
       </c>
       <c r="D6" s="0">
-        <v>0.96001961399610003</v>
+        <v>0.92864041179489998</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.5383918888169999</v>
+        <v>2.5005394218700001</v>
       </c>
       <c r="F6" s="0">
-        <v>2.9004268953370001</v>
+        <v>0.68460703128220002</v>
       </c>
       <c r="G6" s="0">
-        <v>-1.1799750467429999</v>
+        <v>-0.056584424899850001</v>
       </c>
       <c r="H6" s="0">
-        <v>3.9965949993889998e-10</v>
+        <v>-4.9430630412740004e-10</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.456781053212e-09</v>
+        <v>-8.3732059204930004e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>4.6476937853869997e-09</v>
+        <v>5.1716439911589999e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>5.867332220078e-06</v>
+        <v>2.2854655981060001e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>2.438202500343e-06</v>
+        <v>1.153722405434e-05</v>
       </c>
       <c r="M6" s="0">
-        <v>335.875</v>
+        <v>137.59375</v>
       </c>
       <c r="N6" s="0">
-        <v>112.34375</v>
+        <v>41.25</v>
       </c>
       <c r="O6" s="0">
-        <v>-1.5273690223689999e-07</v>
+        <v>5.0291419029240002e-08</v>
       </c>
       <c r="P6" s="0">
-        <v>-2.4028122425080002e-07</v>
+        <v>1.601874828339e-07</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.6946144100002</v>
+        <v>5153.6746253970005</v>
       </c>
       <c r="R6" s="0">
-        <v>0.0006782570853829</v>
+        <v>-0.0002883756533265</v>
       </c>
       <c r="S6" s="0">
-        <v>2.0463630789890001e-12</v>
+        <v>-5.6843418860810002e-12</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>223184</v>
+        <v>230400</v>
       </c>
       <c r="V6" s="0">
-        <v>-1.5366822481160001e-08</v>
+        <v>6.5192580223079997e-09</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -531,70 +531,70 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C7" s="0">
-        <v>0.017754130298269999</v>
+        <v>0.00042495282832529999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.93416925320190003</v>
+        <v>0.96118194337170004</v>
       </c>
       <c r="E7" s="0">
-        <v>1.441680878493</v>
+        <v>1.5217697931230001</v>
       </c>
       <c r="F7" s="0">
-        <v>1.1210417283909999</v>
+        <v>0.54667087014460003</v>
       </c>
       <c r="G7" s="0">
-        <v>1.455636732221</v>
+        <v>1.3733841164010001</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.1608874679080001e-10</v>
+        <v>-4.1323149846490001e-10</v>
       </c>
       <c r="I7" s="0">
-        <v>-8.7353635436220001e-09</v>
+        <v>-8.2264140917379993e-09</v>
       </c>
       <c r="J7" s="0">
-        <v>5.7791691432389997e-09</v>
+        <v>5.0605679358239997e-09</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.698732376099e-06</v>
+        <v>-1.4938414096829999e-06</v>
       </c>
       <c r="L7" s="0">
-        <v>6.0647726058960003e-06</v>
+        <v>6.3255429267879997e-06</v>
       </c>
       <c r="M7" s="0">
-        <v>254.125</v>
+        <v>258.5625</v>
       </c>
       <c r="N7" s="0">
-        <v>-28.6875</v>
+        <v>-32.1875</v>
       </c>
       <c r="O7" s="0">
-        <v>-4.0978193283080001e-07</v>
+        <v>2.2351741790769999e-08</v>
       </c>
       <c r="P7" s="0">
-        <v>-1.508742570877e-07</v>
+        <v>2.0489096641540001e-08</v>
       </c>
       <c r="Q7" s="0">
-        <v>5153.6470546720002</v>
+        <v>5153.7231426239996</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.0002165175974369</v>
+        <v>-0.00062714656814930004</v>
       </c>
       <c r="S7" s="0">
-        <v>1.375610736432e-11</v>
+        <v>3.2969182939270002e-12</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V7" s="0">
-        <v>2.3283064365389999e-09</v>
+        <v>-9.3132257461550002e-09</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -605,70 +605,70 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="C8" s="0">
-        <v>0.01277939404827</v>
+        <v>0.00330929516349</v>
       </c>
       <c r="D8" s="0">
-        <v>0.94794881652459995</v>
+        <v>0.9634687930054</v>
       </c>
       <c r="E8" s="0">
-        <v>2.5733896671630001</v>
+        <v>-2.5659385762700002</v>
       </c>
       <c r="F8" s="0">
-        <v>1.1413279548790001</v>
+        <v>2.7741763863019999</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.25869419690880002</v>
+        <v>-1.9492785657909999</v>
       </c>
       <c r="H8" s="0">
-        <v>-3.9144487651299999e-10</v>
+        <v>2.6501103877349999e-10</v>
       </c>
       <c r="I8" s="0">
-        <v>-8.1949842467569994e-09</v>
+        <v>-8.4121361135200006e-09</v>
       </c>
       <c r="J8" s="0">
-        <v>4.6948382959039999e-09</v>
+        <v>4.5901911998880004e-09</v>
       </c>
       <c r="K8" s="0">
-        <v>3.0584633350370002e-06</v>
+        <v>6.5583735704419998e-06</v>
       </c>
       <c r="L8" s="0">
-        <v>1.190975308418e-05</v>
+        <v>3.0715018510820002e-06</v>
       </c>
       <c r="M8" s="0">
-        <v>143.65625</v>
+        <v>321.84375</v>
       </c>
       <c r="N8" s="0">
-        <v>56.375</v>
+        <v>128.1875</v>
       </c>
       <c r="O8" s="0">
-        <v>-6.3329935073849998e-08</v>
+        <v>-9.6857547760010004e-08</v>
       </c>
       <c r="P8" s="0">
-        <v>1.9557774066929999e-07</v>
+        <v>-4.8428773879999999e-08</v>
       </c>
       <c r="Q8" s="0">
-        <v>5153.7682342529997</v>
+        <v>5153.5642108920001</v>
       </c>
       <c r="R8" s="0">
-        <v>0.00045838532969360001</v>
+        <v>-0.00041618850082160002</v>
       </c>
       <c r="S8" s="0">
-        <v>-2.1600499167109998e-12</v>
+        <v>6.0254023992460002e-12</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>223200</v>
+        <v>230400</v>
       </c>
       <c r="V8" s="0">
-        <v>5.5879354476930001e-09</v>
+        <v>-9.7788870334629992e-09</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -679,149 +679,75 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0">
-        <v>223200</v>
+        <v>230384</v>
       </c>
       <c r="C9" s="0">
-        <v>0.00042580685112630001</v>
+        <v>0.01091852784157</v>
       </c>
       <c r="D9" s="0">
-        <v>0.96118525688120005</v>
+        <v>0.95401556852059999</v>
       </c>
       <c r="E9" s="0">
-        <v>1.5218294143490001</v>
+        <v>1.572403020463</v>
       </c>
       <c r="F9" s="0">
-        <v>0.54894177982280001</v>
+        <v>0.91684223788499997</v>
       </c>
       <c r="G9" s="0">
-        <v>0.32095947942199998</v>
+        <v>0.4972995749577</v>
       </c>
       <c r="H9" s="0">
-        <v>-4.9680640826679998e-10</v>
+        <v>-5.3716523223089998e-10</v>
       </c>
       <c r="I9" s="0">
-        <v>-8.2046274699519993e-09</v>
+        <v>-8.4303511579639993e-09</v>
       </c>
       <c r="J9" s="0">
-        <v>4.9537777732999999e-09</v>
+        <v>5.1980736634899997e-09</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.4193356037140001e-06</v>
+        <v>-1.421198248863e-06</v>
       </c>
       <c r="L9" s="0">
-        <v>6.5565109252930001e-06</v>
+        <v>6.7427754402160001e-06</v>
       </c>
       <c r="M9" s="0">
-        <v>249.96875</v>
+        <v>247.28125</v>
       </c>
       <c r="N9" s="0">
-        <v>-29.0625</v>
+        <v>-31.9375</v>
       </c>
       <c r="O9" s="0">
-        <v>-3.9115548133849998e-08</v>
+        <v>-1.2293457984919999e-07</v>
       </c>
       <c r="P9" s="0">
-        <v>-6.1467289924619994e-08</v>
+        <v>8.9406967163090001e-08</v>
       </c>
       <c r="Q9" s="0">
-        <v>5153.7255840300004</v>
+        <v>5153.73871994</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.00062717031687500001</v>
+        <v>-0.0001800009049475</v>
       </c>
       <c r="S9" s="0">
-        <v>3.2969182939270002e-12</v>
+        <v>1.932676241267e-12</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
       </c>
       <c r="U9" s="0">
-        <v>223200</v>
+        <v>230384</v>
       </c>
       <c r="V9" s="0">
-        <v>-9.3132257461550002e-09</v>
+        <v>-1.350417733192e-08</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0">
-        <v>223200</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.0033101234585</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.96346751002599995</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-2.5658781855499999</v>
-      </c>
-      <c r="F10" s="0">
-        <v>2.77449006227</v>
-      </c>
-      <c r="G10" s="0">
-        <v>-2.9998417931199999</v>
-      </c>
-      <c r="H10" s="0">
-        <v>2.31081054025e-10</v>
-      </c>
-      <c r="I10" s="0">
-        <v>-8.2999885849799994e-09</v>
-      </c>
-      <c r="J10" s="0">
-        <v>4.5684045781000002e-09</v>
-      </c>
-      <c r="K10" s="0">
-        <v>6.1243772506700001e-06</v>
-      </c>
-      <c r="L10" s="0">
-        <v>3.3304095268199999e-06</v>
-      </c>
-      <c r="M10" s="0">
-        <v>316.6875</v>
-      </c>
-      <c r="N10" s="0">
-        <v>119.1875</v>
-      </c>
-      <c r="O10" s="0">
-        <v>-3.7252902984600003e-08</v>
-      </c>
-      <c r="P10" s="0">
-        <v>5.7741999626200001e-08</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>5153.56178284</v>
-      </c>
-      <c r="R10" s="0">
-        <v>-0.00041623180732100002</v>
-      </c>
-      <c r="S10" s="0">
-        <v>6.0254023992500004e-12</v>
-      </c>
-      <c r="T10" s="0">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0">
-        <v>223200</v>
-      </c>
-      <c r="V10" s="0">
-        <v>-9.7788870334599999e-09</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0</v>
-      </c>
-      <c r="X10" s="0">
         <v>0</v>
       </c>
     </row>

--- a/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61,9 +61,9 @@
   <cols>
     <col min="1" max="1" width="2.90625" customWidth="true"/>
     <col min="2" max="2" width="6.90625" customWidth="true"/>
-    <col min="3" max="3" width="15.453125" customWidth="true"/>
+    <col min="3" max="3" width="14.453125" customWidth="true"/>
     <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="12.08984375" customWidth="true"/>
+    <col min="5" max="5" width="13.453125" customWidth="true"/>
     <col min="6" max="6" width="13.08984375" customWidth="true"/>
     <col min="7" max="7" width="13.08984375" customWidth="true"/>
     <col min="8" max="8" width="15.7265625" customWidth="true"/>
@@ -72,7 +72,7 @@
     <col min="11" max="11" width="15.7265625" customWidth="true"/>
     <col min="12" max="12" width="15.08984375" customWidth="true"/>
     <col min="13" max="13" width="9.453125" customWidth="true"/>
-    <col min="14" max="14" width="10.08984375" customWidth="true"/>
+    <col min="14" max="14" width="9.08984375" customWidth="true"/>
     <col min="15" max="15" width="15.7265625" customWidth="true"/>
     <col min="16" max="16" width="15.7265625" customWidth="true"/>
     <col min="17" max="17" width="11.453125" customWidth="true"/>
@@ -87,70 +87,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0037378844572229998</v>
+        <v>0.0054057661909609998</v>
       </c>
       <c r="D1" s="0">
-        <v>0.98729500475410004</v>
+        <v>0.97907479638380002</v>
       </c>
       <c r="E1" s="0">
-        <v>-1.568608880982</v>
+        <v>-0.84037457068830002</v>
       </c>
       <c r="F1" s="0">
-        <v>-0.68788719643999996</v>
+        <v>1.4332724042689999</v>
       </c>
       <c r="G1" s="0">
-        <v>2.50238026728</v>
+        <v>2.026043966075</v>
       </c>
       <c r="H1" s="0">
-        <v>-3.235849071817e-10</v>
+        <v>1.4250593594420001e-10</v>
       </c>
       <c r="I1" s="0">
-        <v>-8.1431963396710001e-09</v>
+        <v>-7.6471042468719999e-09</v>
       </c>
       <c r="J1" s="0">
-        <v>4.0123099859589997e-09</v>
+        <v>4.0112385127559996e-09</v>
       </c>
       <c r="K1" s="0">
-        <v>-5.3606927394870001e-06</v>
+        <v>-4.2337924242020001e-06</v>
       </c>
       <c r="L1" s="0">
-        <v>2.6915222406390001e-06</v>
+        <v>9.7323209047319995e-06</v>
       </c>
       <c r="M1" s="0">
-        <v>341.90625</v>
+        <v>201.9375</v>
       </c>
       <c r="N1" s="0">
-        <v>-106.0625</v>
+        <v>-81.9375</v>
       </c>
       <c r="O1" s="0">
-        <v>5.5879354476930001e-09</v>
+        <v>3.7252902984620001e-08</v>
       </c>
       <c r="P1" s="0">
-        <v>6.7055225372310006e-08</v>
+        <v>-9.1269612312320005e-08</v>
       </c>
       <c r="Q1" s="0">
-        <v>5153.6940460209998</v>
+        <v>5153.6641654969999</v>
       </c>
       <c r="R1" s="0">
-        <v>-0.00058288965374230005</v>
+        <v>-0.0002255225554109</v>
       </c>
       <c r="S1" s="0">
-        <v>-6.5938365878540003e-12</v>
+        <v>-6.8212102632970002e-13</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V1" s="0">
-        <v>3.7252902984620001e-09</v>
+        <v>-1.071020960808e-08</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -161,70 +161,70 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C2" s="0">
-        <v>0.0022920262999830002</v>
+        <v>0.02004388789646</v>
       </c>
       <c r="D2" s="0">
-        <v>0.96414443879440004</v>
+        <v>0.95031181543300003</v>
       </c>
       <c r="E2" s="0">
-        <v>-1.547823931091</v>
+        <v>1.2987727225479999</v>
       </c>
       <c r="F2" s="0">
-        <v>-2.2720009229409999</v>
+        <v>-2.011600363755</v>
       </c>
       <c r="G2" s="0">
-        <v>-2.8288157913949998</v>
+        <v>-1.1601624034089999</v>
       </c>
       <c r="H2" s="0">
-        <v>-2.625109346341e-10</v>
+        <v>-4.0037382003379999e-10</v>
       </c>
       <c r="I2" s="0">
-        <v>-8.3796347597090008e-09</v>
+        <v>-8.2739160703859993e-09</v>
       </c>
       <c r="J2" s="0">
-        <v>4.4784008290849996e-09</v>
+        <v>5.0230663737339999e-09</v>
       </c>
       <c r="K2" s="0">
-        <v>-5.7686120271680003e-06</v>
+        <v>-5.4202973842620003e-07</v>
       </c>
       <c r="L2" s="0">
-        <v>2.2631138563159999e-06</v>
+        <v>6.5229833126070004e-06</v>
       </c>
       <c r="M2" s="0">
-        <v>336.8125</v>
+        <v>246.5</v>
       </c>
       <c r="N2" s="0">
-        <v>-113.90625</v>
+        <v>-13.8125</v>
       </c>
       <c r="O2" s="0">
-        <v>-1.862645149231e-09</v>
+        <v>1.732259988785e-07</v>
       </c>
       <c r="P2" s="0">
-        <v>3.5390257835389997e-08</v>
+        <v>5.1781535148620002e-07</v>
       </c>
       <c r="Q2" s="0">
-        <v>5153.7582874299997</v>
+        <v>5153.6459617609999</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.0005242908373475</v>
+        <v>-0.0001212954521179</v>
       </c>
       <c r="S2" s="0">
-        <v>1.352873368887e-11</v>
+        <v>-5.456968210638e-12</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V2" s="0">
-        <v>-8.8475644588469996e-09</v>
+        <v>-1.071020960808e-08</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -235,70 +235,70 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0089779596310109993</v>
+        <v>0.0098648193525150002</v>
       </c>
       <c r="D3" s="0">
-        <v>0.95972974994490001</v>
+        <v>0.97569377326490003</v>
       </c>
       <c r="E3" s="0">
-        <v>2.6661020624009999</v>
+        <v>0.3998344031878</v>
       </c>
       <c r="F3" s="0">
-        <v>1.525928621989</v>
+        <v>1.0070076605630001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.88426771165380003</v>
+        <v>1.415154020491</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.0394539737579998e-10</v>
+        <v>2.8858344923040001e-10</v>
       </c>
       <c r="I3" s="0">
-        <v>-7.9442594817229992e-09</v>
+        <v>-7.994618722245e-09</v>
       </c>
       <c r="J3" s="0">
-        <v>4.2508913524019998e-09</v>
+        <v>4.5334031201510001e-09</v>
       </c>
       <c r="K3" s="0">
-        <v>4.4163316488269998e-06</v>
+        <v>-6.5192580223080002e-08</v>
       </c>
       <c r="L3" s="0">
-        <v>1.3150274753569999e-05</v>
+        <v>7.1432441473009997e-06</v>
       </c>
       <c r="M3" s="0">
-        <v>126.21875</v>
+        <v>251.875</v>
       </c>
       <c r="N3" s="0">
-        <v>86.6875</v>
+        <v>-1.0625</v>
       </c>
       <c r="O3" s="0">
-        <v>-1.4901161193849999e-07</v>
+        <v>-2.3283064365389999e-07</v>
       </c>
       <c r="P3" s="0">
-        <v>-6.1467289924619994e-08</v>
+        <v>3.9115548133849998e-08</v>
       </c>
       <c r="Q3" s="0">
-        <v>5153.602905273</v>
+        <v>5153.6672611240001</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.00060453405603769998</v>
+        <v>0.00069209327921270002</v>
       </c>
       <c r="S3" s="0">
-        <v>-6.8212102632970002e-13</v>
+        <v>-9.0949470177289997e-13</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V3" s="0">
-        <v>-1.2572854757310001e-08</v>
+        <v>-1.1175870895390001e-08</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -309,70 +309,70 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C4" s="0">
-        <v>0.017754194443110001</v>
+        <v>0.0063947921153159997</v>
       </c>
       <c r="D4" s="0">
-        <v>0.93416872655140004</v>
+        <v>0.9427385664911</v>
       </c>
       <c r="E4" s="0">
-        <v>1.4416198075140001</v>
+        <v>2.3631284483220001</v>
       </c>
       <c r="F4" s="0">
-        <v>1.121031517222</v>
+        <v>-2.7650872645720002</v>
       </c>
       <c r="G4" s="0">
-        <v>2.5058526832800001</v>
+        <v>-1.979620316229</v>
       </c>
       <c r="H4" s="0">
-        <v>-3.857303529318e-10</v>
+        <v>-1.950081228711e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-8.220342410257e-09</v>
+        <v>-7.8713993039469995e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>5.5895185401690001e-09</v>
+        <v>4.6009059319140002e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.7061829566960001e-06</v>
+        <v>2.6747584342959999e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>5.6736171245569996e-06</v>
+        <v>9.8142772912980007e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>252.8125</v>
+        <v>182.4375</v>
       </c>
       <c r="N4" s="0">
-        <v>-28.09375</v>
+        <v>52.46875</v>
       </c>
       <c r="O4" s="0">
-        <v>1.098960638046e-07</v>
+        <v>-5.7741999626159999e-08</v>
       </c>
       <c r="P4" s="0">
-        <v>-2.5890767574310001e-07</v>
+        <v>-7.8231096267699997e-08</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6466884609999</v>
+        <v>5153.6453742980002</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.000216418877244</v>
+        <v>0.00072200922295450004</v>
       </c>
       <c r="S4" s="0">
-        <v>1.375610736432e-11</v>
+        <v>2.728484105319e-12</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V4" s="0">
-        <v>2.3283064365389999e-09</v>
+        <v>-7.9162418842320008e-09</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,70 +383,70 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0127831188729</v>
+        <v>0.016617130371740001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.9479454605905</v>
+        <v>0.94201347699680005</v>
       </c>
       <c r="E5" s="0">
-        <v>2.5733316844049998</v>
+        <v>0.083768172617770004</v>
       </c>
       <c r="F5" s="0">
-        <v>1.1414266652759999</v>
+        <v>1.4893628280660001</v>
       </c>
       <c r="G5" s="0">
-        <v>0.7913284938938</v>
+        <v>0.68719538540610004</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5073722613040005e-10</v>
+        <v>3.575148919303e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.1503394943549994e-09</v>
+        <v>-8.5542848917300003e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>4.5609042656839999e-09</v>
+        <v>5.2705766835319999e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>3.3602118492130001e-06</v>
+        <v>-3.3155083656309998e-07</v>
       </c>
       <c r="L5" s="0">
-        <v>1.333653926849e-05</v>
+        <v>8.3409249782560003e-06</v>
       </c>
       <c r="M5" s="0">
-        <v>116.375</v>
+        <v>214.75</v>
       </c>
       <c r="N5" s="0">
-        <v>61.71875</v>
+        <v>-8.03125</v>
       </c>
       <c r="O5" s="0">
-        <v>-1.9371509552e-07</v>
+        <v>-2.0861625671390001e-07</v>
       </c>
       <c r="P5" s="0">
-        <v>3.3527612686159999e-08</v>
+        <v>-2.607703208923e-08</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.7757854459996</v>
+        <v>5153.6593589779995</v>
       </c>
       <c r="R5" s="0">
-        <v>0.00045836996287109999</v>
+        <v>0.0003673499450088</v>
       </c>
       <c r="S5" s="0">
-        <v>-2.1600499167109998e-12</v>
+        <v>3.52429196937e-12</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V5" s="0">
-        <v>5.5879354476930001e-09</v>
+        <v>-1.071020960808e-08</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,70 +457,70 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01081502647139</v>
+        <v>0.01296074059792</v>
       </c>
       <c r="D6" s="0">
-        <v>0.92864041179489998</v>
+        <v>0.96074972129939995</v>
       </c>
       <c r="E6" s="0">
-        <v>2.5005394218700001</v>
+        <v>-2.832123304344</v>
       </c>
       <c r="F6" s="0">
-        <v>0.68460703128220002</v>
+        <v>-1.150011187062</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.056584424899850001</v>
+        <v>1.5698165666699999</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.9430630412740004e-10</v>
+        <v>1.9036507232650001e-10</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.3732059204930004e-09</v>
+        <v>-8.0921227836810004e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>5.1716439911589999e-09</v>
+        <v>4.424470011221e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>2.2854655981060001e-06</v>
+        <v>3.9990991353990003e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>1.153722405434e-05</v>
+        <v>3.9786100387569998e-06</v>
       </c>
       <c r="M6" s="0">
-        <v>137.59375</v>
+        <v>297.71875</v>
       </c>
       <c r="N6" s="0">
-        <v>41.25</v>
+        <v>78.28125</v>
       </c>
       <c r="O6" s="0">
-        <v>5.0291419029240002e-08</v>
+        <v>3.4086406230930002e-07</v>
       </c>
       <c r="P6" s="0">
-        <v>1.601874828339e-07</v>
+        <v>-1.5459954738620001e-07</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.6746253970005</v>
+        <v>5153.5491046910001</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.0002883756533265</v>
+        <v>-9.7230076789860002e-07</v>
       </c>
       <c r="S6" s="0">
-        <v>-5.6843418860810002e-12</v>
+        <v>-1.2505552149379999e-11</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V6" s="0">
-        <v>6.5192580223079997e-09</v>
+        <v>-1.1175870895390001e-08</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -531,70 +531,70 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="C7" s="0">
-        <v>0.00042495282832529999</v>
+        <v>0.0056925325188789998</v>
       </c>
       <c r="D7" s="0">
-        <v>0.96118194337170004</v>
+        <v>0.97222573138979995</v>
       </c>
       <c r="E7" s="0">
-        <v>1.5217697931230001</v>
+        <v>-1.8222039043010001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.54667087014460003</v>
+        <v>-2.8567734476469999</v>
       </c>
       <c r="G7" s="0">
-        <v>1.3733841164010001</v>
+        <v>-0.40447951626400003</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.1323149846490001e-10</v>
+        <v>-8.4289225270279998e-11</v>
       </c>
       <c r="I7" s="0">
-        <v>-8.2264140917379993e-09</v>
+        <v>-8.2907024838940001e-09</v>
       </c>
       <c r="J7" s="0">
-        <v>5.0605679358239997e-09</v>
+        <v>4.3737536129649998e-09</v>
       </c>
       <c r="K7" s="0">
-        <v>-1.4938414096829999e-06</v>
+        <v>-2.630054950714e-06</v>
       </c>
       <c r="L7" s="0">
-        <v>6.3255429267879997e-06</v>
+        <v>3.00444662571e-06</v>
       </c>
       <c r="M7" s="0">
-        <v>258.5625</v>
+        <v>326.28125</v>
       </c>
       <c r="N7" s="0">
-        <v>-32.1875</v>
+        <v>-52.25</v>
       </c>
       <c r="O7" s="0">
-        <v>2.2351741790769999e-08</v>
+        <v>1.154839992523e-07</v>
       </c>
       <c r="P7" s="0">
-        <v>2.0489096641540001e-08</v>
+        <v>6.7055225372310006e-08</v>
       </c>
       <c r="Q7" s="0">
-        <v>5153.7231426239996</v>
+        <v>5153.6536045069997</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.00062714656814930004</v>
+        <v>-0.000476686283946</v>
       </c>
       <c r="S7" s="0">
-        <v>3.2969182939270002e-12</v>
+        <v>9.8907548817810001e-12</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>230400</v>
+        <v>122400</v>
       </c>
       <c r="V7" s="0">
-        <v>-9.3132257461550002e-09</v>
+        <v>-8.3819031715390006e-09</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -605,70 +605,70 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0">
-        <v>230400</v>
+        <v>122384</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00330929516349</v>
+        <v>0.0036967458436269998</v>
       </c>
       <c r="D8" s="0">
-        <v>0.9634687930054</v>
+        <v>0.96072487217290004</v>
       </c>
       <c r="E8" s="0">
-        <v>-2.5659385762700002</v>
+        <v>-0.97910242651750001</v>
       </c>
       <c r="F8" s="0">
-        <v>2.7741763863019999</v>
+        <v>-2.0839021990969999</v>
       </c>
       <c r="G8" s="0">
-        <v>-1.9492785657909999</v>
+        <v>-0.1754217545631</v>
       </c>
       <c r="H8" s="0">
-        <v>2.6501103877349999e-10</v>
+        <v>7.3574493719699995e-11</v>
       </c>
       <c r="I8" s="0">
-        <v>-8.4121361135200006e-09</v>
+        <v>-8.0303346194909996e-09</v>
       </c>
       <c r="J8" s="0">
-        <v>4.5901911998880004e-09</v>
+        <v>4.430184663562e-09</v>
       </c>
       <c r="K8" s="0">
-        <v>6.5583735704419998e-06</v>
+        <v>-4.2133033275599996e-06</v>
       </c>
       <c r="L8" s="0">
-        <v>3.0715018510820002e-06</v>
+        <v>9.1064721345899998e-06</v>
       </c>
       <c r="M8" s="0">
-        <v>321.84375</v>
+        <v>207.28125</v>
       </c>
       <c r="N8" s="0">
-        <v>128.1875</v>
+        <v>-79.75</v>
       </c>
       <c r="O8" s="0">
-        <v>-9.6857547760010004e-08</v>
+        <v>-3.1664967536930002e-08</v>
       </c>
       <c r="P8" s="0">
-        <v>-4.8428773879999999e-08</v>
+        <v>5.215406417847e-08</v>
       </c>
       <c r="Q8" s="0">
-        <v>5153.5642108920001</v>
+        <v>5153.6459693910001</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.00041618850082160002</v>
+        <v>0.00036204606294630001</v>
       </c>
       <c r="S8" s="0">
-        <v>6.0254023992460002e-12</v>
+        <v>-1.136868377216e-13</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>230400</v>
+        <v>122384</v>
       </c>
       <c r="V8" s="0">
-        <v>-9.7788870334629992e-09</v>
+        <v>-8.3819031715390006e-09</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -679,75 +679,297 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0">
-        <v>230384</v>
+        <v>122400</v>
       </c>
       <c r="C9" s="0">
-        <v>0.01091852784157</v>
+        <v>0.00040863861795509997</v>
       </c>
       <c r="D9" s="0">
-        <v>0.95401556852059999</v>
+        <v>0.96192314105700005</v>
       </c>
       <c r="E9" s="0">
-        <v>1.572403020463</v>
+        <v>-0.77308521787380002</v>
       </c>
       <c r="F9" s="0">
-        <v>0.91684223788499997</v>
+        <v>-0.54608846051350002</v>
       </c>
       <c r="G9" s="0">
-        <v>0.4972995749577</v>
+        <v>-1.8496059471920001</v>
       </c>
       <c r="H9" s="0">
-        <v>-5.3716523223089998e-10</v>
+        <v>1.942938074027e-10</v>
       </c>
       <c r="I9" s="0">
-        <v>-8.4303511579639993e-09</v>
+        <v>-7.8931859257329996e-09</v>
       </c>
       <c r="J9" s="0">
-        <v>5.1980736634899997e-09</v>
+        <v>4.3691105624210001e-09</v>
       </c>
       <c r="K9" s="0">
-        <v>-1.421198248863e-06</v>
+        <v>-3.518536686897e-06</v>
       </c>
       <c r="L9" s="0">
-        <v>6.7427754402160001e-06</v>
+        <v>9.8627060651780005e-06</v>
       </c>
       <c r="M9" s="0">
-        <v>247.28125</v>
+        <v>192.59375</v>
       </c>
       <c r="N9" s="0">
-        <v>-31.9375</v>
+        <v>-67.0625</v>
       </c>
       <c r="O9" s="0">
-        <v>-1.2293457984919999e-07</v>
+        <v>-2.7939677238460001e-08</v>
       </c>
       <c r="P9" s="0">
+        <v>9.3132257461550002e-09</v>
+      </c>
+      <c r="Q9" s="0">
+        <v>5153.7257881160003</v>
+      </c>
+      <c r="R9" s="0">
+        <v>0.0003561330959201</v>
+      </c>
+      <c r="S9" s="0">
+        <v>1.045918907039e-11</v>
+      </c>
+      <c r="T9" s="0">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0">
+        <v>122400</v>
+      </c>
+      <c r="V9" s="0">
+        <v>-9.7788870334629992e-09</v>
+      </c>
+      <c r="W9" s="0">
+        <v>0</v>
+      </c>
+      <c r="X9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" s="0">
+        <v>122400</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.012377687147819999</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.95807844459000002</v>
+      </c>
+      <c r="E10" s="0">
+        <v>2.4369344648109999</v>
+      </c>
+      <c r="F10" s="0">
+        <v>-1.0037041823420001</v>
+      </c>
+      <c r="G10" s="0">
+        <v>2.2301120514270001</v>
+      </c>
+      <c r="H10" s="0">
+        <v>-3.1929901437130001e-10</v>
+      </c>
+      <c r="I10" s="0">
+        <v>-7.5696010185519997e-09</v>
+      </c>
+      <c r="J10" s="0">
+        <v>4.1826742251699998e-09</v>
+      </c>
+      <c r="K10" s="0">
+        <v>3.5203993320470001e-06</v>
+      </c>
+      <c r="L10" s="0">
+        <v>9.8645687103269994e-06</v>
+      </c>
+      <c r="M10" s="0">
+        <v>185.0625</v>
+      </c>
+      <c r="N10" s="0">
+        <v>67.0625</v>
+      </c>
+      <c r="O10" s="0">
         <v>8.9406967163090001e-08</v>
       </c>
-      <c r="Q9" s="0">
-        <v>5153.73871994</v>
-      </c>
-      <c r="R9" s="0">
-        <v>-0.0001800009049475</v>
-      </c>
-      <c r="S9" s="0">
-        <v>1.932676241267e-12</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0">
-        <v>230384</v>
-      </c>
-      <c r="V9" s="0">
-        <v>-1.350417733192e-08</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0">
+      <c r="P10" s="0">
+        <v>1.341104507446e-07</v>
+      </c>
+      <c r="Q10" s="0">
+        <v>5153.6381340030002</v>
+      </c>
+      <c r="R10" s="0">
+        <v>-6.9341622293000007e-05</v>
+      </c>
+      <c r="S10" s="0">
+        <v>3.7516656448130002e-12</v>
+      </c>
+      <c r="T10" s="0">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0">
+        <v>122400</v>
+      </c>
+      <c r="V10" s="0">
+        <v>-1.1175870895390001e-08</v>
+      </c>
+      <c r="W10" s="0">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>24</v>
+      </c>
+      <c r="B11" s="0">
+        <v>122400</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.01778996596113</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.93430888726969996</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1.1916131920440001</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.123792287945</v>
+      </c>
+      <c r="G11" s="0">
+        <v>-0.17918566430499999</v>
+      </c>
+      <c r="H11" s="0">
+        <v>-2.635824078367e-10</v>
+      </c>
+      <c r="I11" s="0">
+        <v>-8.7871517344259997e-09</v>
+      </c>
+      <c r="J11" s="0">
+        <v>5.606304953676e-09</v>
+      </c>
+      <c r="K11" s="0">
+        <v>-5.6624412536620003e-07</v>
+      </c>
+      <c r="L11" s="0">
+        <v>6.2417238950729997e-06</v>
+      </c>
+      <c r="M11" s="0">
+        <v>245.28125</v>
+      </c>
+      <c r="N11" s="0">
+        <v>-13.40625</v>
+      </c>
+      <c r="O11" s="0">
+        <v>-8.3819031715389996e-08</v>
+      </c>
+      <c r="P11" s="0">
+        <v>2.235174179077e-07</v>
+      </c>
+      <c r="Q11" s="0">
+        <v>5153.6484127040003</v>
+      </c>
+      <c r="R11" s="0">
+        <v>-0.00020110141485929999</v>
+      </c>
+      <c r="S11" s="0">
+        <v>1.409716787748e-11</v>
+      </c>
+      <c r="T11" s="0">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0">
+        <v>122400</v>
+      </c>
+      <c r="V11" s="0">
+        <v>2.3283064365389999e-09</v>
+      </c>
+      <c r="W11" s="0">
+        <v>0</v>
+      </c>
+      <c r="X11" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0">
+        <v>122384</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.0077581119257959996</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.93555536076739998</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.290903870528</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-2.348572501209</v>
+      </c>
+      <c r="G12" s="0">
+        <v>-1.24409836249</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-3.4072847842310002e-10</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-8.2978456385779995e-09</v>
+      </c>
+      <c r="J12" s="0">
+        <v>5.2923633053179999e-09</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-9.0524554252620001e-07</v>
+      </c>
+      <c r="L12" s="0">
+        <v>6.504356861115e-06</v>
+      </c>
+      <c r="M12" s="0">
+        <v>238.59375</v>
+      </c>
+      <c r="N12" s="0">
+        <v>-15.8125</v>
+      </c>
+      <c r="O12" s="0">
+        <v>1.9557774066929999e-07</v>
+      </c>
+      <c r="P12" s="0">
+        <v>7.2643160820009998e-08</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>5153.5685920719998</v>
+      </c>
+      <c r="R12" s="0">
+        <v>5.5850949138399998e-05</v>
+      </c>
+      <c r="S12" s="0">
+        <v>1.193711796077e-11</v>
+      </c>
+      <c r="T12" s="0">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0">
+        <v>122384</v>
+      </c>
+      <c r="V12" s="0">
+        <v>4.1909515857699999e-09</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0</v>
+      </c>
+      <c r="X12" s="0">
         <v>0</v>
       </c>
     </row>

--- a/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
+++ b/Recupere Donnees_Rinex/Filesxlsx/Donnees_Ephem.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61,18 +61,18 @@
   <cols>
     <col min="1" max="1" width="2.90625" customWidth="true"/>
     <col min="2" max="2" width="6.90625" customWidth="true"/>
-    <col min="3" max="3" width="14.453125" customWidth="true"/>
+    <col min="3" max="3" width="15.453125" customWidth="true"/>
     <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="13.453125" customWidth="true"/>
+    <col min="5" max="5" width="12.08984375" customWidth="true"/>
     <col min="6" max="6" width="13.08984375" customWidth="true"/>
-    <col min="7" max="7" width="13.08984375" customWidth="true"/>
+    <col min="7" max="7" width="12.453125" customWidth="true"/>
     <col min="8" max="8" width="15.7265625" customWidth="true"/>
     <col min="9" max="9" width="15.7265625" customWidth="true"/>
     <col min="10" max="10" width="15.08984375" customWidth="true"/>
     <col min="11" max="11" width="15.7265625" customWidth="true"/>
     <col min="12" max="12" width="15.08984375" customWidth="true"/>
     <col min="13" max="13" width="9.453125" customWidth="true"/>
-    <col min="14" max="14" width="9.08984375" customWidth="true"/>
+    <col min="14" max="14" width="10.08984375" customWidth="true"/>
     <col min="15" max="15" width="15.7265625" customWidth="true"/>
     <col min="16" max="16" width="15.7265625" customWidth="true"/>
     <col min="17" max="17" width="11.453125" customWidth="true"/>
@@ -87,70 +87,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C1" s="0">
-        <v>0.0054057661909609998</v>
+        <v>0.0037378844572229998</v>
       </c>
       <c r="D1" s="0">
-        <v>0.97907479638380002</v>
+        <v>0.98729500475410004</v>
       </c>
       <c r="E1" s="0">
-        <v>-0.84037457068830002</v>
+        <v>-1.568608880982</v>
       </c>
       <c r="F1" s="0">
-        <v>1.4332724042689999</v>
+        <v>-0.68788719643999996</v>
       </c>
       <c r="G1" s="0">
-        <v>2.026043966075</v>
+        <v>2.50238026728</v>
       </c>
       <c r="H1" s="0">
-        <v>1.4250593594420001e-10</v>
+        <v>-3.235849071817e-10</v>
       </c>
       <c r="I1" s="0">
-        <v>-7.6471042468719999e-09</v>
+        <v>-8.1431963396710001e-09</v>
       </c>
       <c r="J1" s="0">
-        <v>4.0112385127559996e-09</v>
+        <v>4.0123099859589997e-09</v>
       </c>
       <c r="K1" s="0">
-        <v>-4.2337924242020001e-06</v>
+        <v>-5.3606927394870001e-06</v>
       </c>
       <c r="L1" s="0">
-        <v>9.7323209047319995e-06</v>
+        <v>2.6915222406390001e-06</v>
       </c>
       <c r="M1" s="0">
-        <v>201.9375</v>
+        <v>341.90625</v>
       </c>
       <c r="N1" s="0">
-        <v>-81.9375</v>
+        <v>-106.0625</v>
       </c>
       <c r="O1" s="0">
-        <v>3.7252902984620001e-08</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="P1" s="0">
-        <v>-9.1269612312320005e-08</v>
+        <v>6.7055225372310006e-08</v>
       </c>
       <c r="Q1" s="0">
-        <v>5153.6641654969999</v>
+        <v>5153.6940460209998</v>
       </c>
       <c r="R1" s="0">
-        <v>-0.0002255225554109</v>
+        <v>-0.00058288965374230005</v>
       </c>
       <c r="S1" s="0">
-        <v>-6.8212102632970002e-13</v>
+        <v>-6.5938365878540003e-12</v>
       </c>
       <c r="T1" s="0">
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V1" s="0">
-        <v>-1.071020960808e-08</v>
+        <v>3.7252902984620001e-09</v>
       </c>
       <c r="W1" s="0">
         <v>0</v>
@@ -161,70 +161,70 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C2" s="0">
-        <v>0.02004388789646</v>
+        <v>0.0022920262999830002</v>
       </c>
       <c r="D2" s="0">
-        <v>0.95031181543300003</v>
+        <v>0.96414443879440004</v>
       </c>
       <c r="E2" s="0">
-        <v>1.2987727225479999</v>
+        <v>-1.547823931091</v>
       </c>
       <c r="F2" s="0">
-        <v>-2.011600363755</v>
+        <v>-2.2720009229409999</v>
       </c>
       <c r="G2" s="0">
-        <v>-1.1601624034089999</v>
+        <v>-2.8288157913949998</v>
       </c>
       <c r="H2" s="0">
-        <v>-4.0037382003379999e-10</v>
+        <v>-2.625109346341e-10</v>
       </c>
       <c r="I2" s="0">
-        <v>-8.2739160703859993e-09</v>
+        <v>-8.3796347597090008e-09</v>
       </c>
       <c r="J2" s="0">
-        <v>5.0230663737339999e-09</v>
+        <v>4.4784008290849996e-09</v>
       </c>
       <c r="K2" s="0">
-        <v>-5.4202973842620003e-07</v>
+        <v>-5.7686120271680003e-06</v>
       </c>
       <c r="L2" s="0">
-        <v>6.5229833126070004e-06</v>
+        <v>2.2631138563159999e-06</v>
       </c>
       <c r="M2" s="0">
-        <v>246.5</v>
+        <v>336.8125</v>
       </c>
       <c r="N2" s="0">
-        <v>-13.8125</v>
+        <v>-113.90625</v>
       </c>
       <c r="O2" s="0">
-        <v>1.732259988785e-07</v>
+        <v>-1.862645149231e-09</v>
       </c>
       <c r="P2" s="0">
-        <v>5.1781535148620002e-07</v>
+        <v>3.5390257835389997e-08</v>
       </c>
       <c r="Q2" s="0">
-        <v>5153.6459617609999</v>
+        <v>5153.7582874299997</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.0001212954521179</v>
+        <v>-0.0005242908373475</v>
       </c>
       <c r="S2" s="0">
-        <v>-5.456968210638e-12</v>
+        <v>1.352873368887e-11</v>
       </c>
       <c r="T2" s="0">
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V2" s="0">
-        <v>-1.071020960808e-08</v>
+        <v>-8.8475644588469996e-09</v>
       </c>
       <c r="W2" s="0">
         <v>0</v>
@@ -235,70 +235,70 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0098648193525150002</v>
+        <v>0.0089779596310109993</v>
       </c>
       <c r="D3" s="0">
-        <v>0.97569377326490003</v>
+        <v>0.95972974994490001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.3998344031878</v>
+        <v>2.6661020624009999</v>
       </c>
       <c r="F3" s="0">
-        <v>1.0070076605630001</v>
+        <v>1.525928621989</v>
       </c>
       <c r="G3" s="0">
-        <v>1.415154020491</v>
+        <v>0.88426771165380003</v>
       </c>
       <c r="H3" s="0">
-        <v>2.8858344923040001e-10</v>
+        <v>-4.0394539737579998e-10</v>
       </c>
       <c r="I3" s="0">
-        <v>-7.994618722245e-09</v>
+        <v>-7.9442594817229992e-09</v>
       </c>
       <c r="J3" s="0">
-        <v>4.5334031201510001e-09</v>
+        <v>4.2508913524019998e-09</v>
       </c>
       <c r="K3" s="0">
-        <v>-6.5192580223080002e-08</v>
+        <v>4.4163316488269998e-06</v>
       </c>
       <c r="L3" s="0">
-        <v>7.1432441473009997e-06</v>
+        <v>1.3150274753569999e-05</v>
       </c>
       <c r="M3" s="0">
-        <v>251.875</v>
+        <v>126.21875</v>
       </c>
       <c r="N3" s="0">
-        <v>-1.0625</v>
+        <v>86.6875</v>
       </c>
       <c r="O3" s="0">
-        <v>-2.3283064365389999e-07</v>
+        <v>-1.4901161193849999e-07</v>
       </c>
       <c r="P3" s="0">
-        <v>3.9115548133849998e-08</v>
+        <v>-6.1467289924619994e-08</v>
       </c>
       <c r="Q3" s="0">
-        <v>5153.6672611240001</v>
+        <v>5153.602905273</v>
       </c>
       <c r="R3" s="0">
-        <v>0.00069209327921270002</v>
+        <v>-0.00060453405603769998</v>
       </c>
       <c r="S3" s="0">
-        <v>-9.0949470177289997e-13</v>
+        <v>-6.8212102632970002e-13</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V3" s="0">
-        <v>-1.1175870895390001e-08</v>
+        <v>-1.2572854757310001e-08</v>
       </c>
       <c r="W3" s="0">
         <v>0</v>
@@ -309,70 +309,70 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0063947921153159997</v>
+        <v>0.010884177521800001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.9427385664911</v>
+        <v>0.96002086625390004</v>
       </c>
       <c r="E4" s="0">
-        <v>2.3631284483220001</v>
+        <v>-2.5384522180950002</v>
       </c>
       <c r="F4" s="0">
-        <v>-2.7650872645720002</v>
+        <v>2.9003765314560002</v>
       </c>
       <c r="G4" s="0">
-        <v>-1.979620316229</v>
+        <v>-0.12742281697460001</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.950081228711e-10</v>
+        <v>1.5679224531210001e-10</v>
       </c>
       <c r="I4" s="0">
-        <v>-7.8713993039469995e-09</v>
+        <v>-8.6792900986989997e-09</v>
       </c>
       <c r="J4" s="0">
-        <v>4.6009059319140002e-09</v>
+        <v>4.7776990103409999e-09</v>
       </c>
       <c r="K4" s="0">
-        <v>2.6747584342959999e-06</v>
+        <v>5.345791578293e-06</v>
       </c>
       <c r="L4" s="0">
-        <v>9.8142772912980007e-06</v>
+        <v>2.4400651454930001e-06</v>
       </c>
       <c r="M4" s="0">
-        <v>182.4375</v>
+        <v>335.59375</v>
       </c>
       <c r="N4" s="0">
-        <v>52.46875</v>
+        <v>104.90625</v>
       </c>
       <c r="O4" s="0">
-        <v>-5.7741999626159999e-08</v>
+        <v>1.9557774066929999e-07</v>
       </c>
       <c r="P4" s="0">
-        <v>-7.8231096267699997e-08</v>
+        <v>-1.210719347e-07</v>
       </c>
       <c r="Q4" s="0">
-        <v>5153.6453742980002</v>
+        <v>5153.6965045930001</v>
       </c>
       <c r="R4" s="0">
-        <v>0.00072200922295450004</v>
+        <v>0.00067827198654410003</v>
       </c>
       <c r="S4" s="0">
-        <v>2.728484105319e-12</v>
+        <v>2.0463630789890001e-12</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V4" s="0">
-        <v>-7.9162418842320008e-09</v>
+        <v>-1.5366822481160001e-08</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -383,70 +383,70 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C5" s="0">
-        <v>0.016617130371740001</v>
+        <v>0.017754194443110001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.94201347699680005</v>
+        <v>0.93416872655140004</v>
       </c>
       <c r="E5" s="0">
-        <v>0.083768172617770004</v>
+        <v>1.4416198075140001</v>
       </c>
       <c r="F5" s="0">
-        <v>1.4893628280660001</v>
+        <v>1.121031517222</v>
       </c>
       <c r="G5" s="0">
-        <v>0.68719538540610004</v>
+        <v>2.5058526832800001</v>
       </c>
       <c r="H5" s="0">
-        <v>3.575148919303e-10</v>
+        <v>-3.857303529318e-10</v>
       </c>
       <c r="I5" s="0">
-        <v>-8.5542848917300003e-09</v>
+        <v>-8.220342410257e-09</v>
       </c>
       <c r="J5" s="0">
-        <v>5.2705766835319999e-09</v>
+        <v>5.5895185401690001e-09</v>
       </c>
       <c r="K5" s="0">
-        <v>-3.3155083656309998e-07</v>
+        <v>-1.7061829566960001e-06</v>
       </c>
       <c r="L5" s="0">
-        <v>8.3409249782560003e-06</v>
+        <v>5.6736171245569996e-06</v>
       </c>
       <c r="M5" s="0">
-        <v>214.75</v>
+        <v>252.8125</v>
       </c>
       <c r="N5" s="0">
-        <v>-8.03125</v>
+        <v>-28.09375</v>
       </c>
       <c r="O5" s="0">
-        <v>-2.0861625671390001e-07</v>
+        <v>1.098960638046e-07</v>
       </c>
       <c r="P5" s="0">
-        <v>-2.607703208923e-08</v>
+        <v>-2.5890767574310001e-07</v>
       </c>
       <c r="Q5" s="0">
-        <v>5153.6593589779995</v>
+        <v>5153.6466884609999</v>
       </c>
       <c r="R5" s="0">
-        <v>0.0003673499450088</v>
+        <v>-0.000216418877244</v>
       </c>
       <c r="S5" s="0">
-        <v>3.52429196937e-12</v>
+        <v>1.375610736432e-11</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V5" s="0">
-        <v>-1.071020960808e-08</v>
+        <v>2.3283064365389999e-09</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -457,70 +457,70 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01296074059792</v>
+        <v>0.0127831188729</v>
       </c>
       <c r="D6" s="0">
-        <v>0.96074972129939995</v>
+        <v>0.9479454605905</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.832123304344</v>
+        <v>2.5733316844049998</v>
       </c>
       <c r="F6" s="0">
-        <v>-1.150011187062</v>
+        <v>1.1414266652759999</v>
       </c>
       <c r="G6" s="0">
-        <v>1.5698165666699999</v>
+        <v>0.7913284938938</v>
       </c>
       <c r="H6" s="0">
-        <v>1.9036507232650001e-10</v>
+        <v>-5.5073722613040005e-10</v>
       </c>
       <c r="I6" s="0">
-        <v>-8.0921227836810004e-09</v>
+        <v>-8.1503394943549994e-09</v>
       </c>
       <c r="J6" s="0">
-        <v>4.424470011221e-09</v>
+        <v>4.5609042656839999e-09</v>
       </c>
       <c r="K6" s="0">
-        <v>3.9990991353990003e-06</v>
+        <v>3.3602118492130001e-06</v>
       </c>
       <c r="L6" s="0">
-        <v>3.9786100387569998e-06</v>
+        <v>1.333653926849e-05</v>
       </c>
       <c r="M6" s="0">
-        <v>297.71875</v>
+        <v>116.375</v>
       </c>
       <c r="N6" s="0">
-        <v>78.28125</v>
+        <v>61.71875</v>
       </c>
       <c r="O6" s="0">
-        <v>3.4086406230930002e-07</v>
+        <v>-1.9371509552e-07</v>
       </c>
       <c r="P6" s="0">
-        <v>-1.5459954738620001e-07</v>
+        <v>3.3527612686159999e-08</v>
       </c>
       <c r="Q6" s="0">
-        <v>5153.5491046910001</v>
+        <v>5153.7757854459996</v>
       </c>
       <c r="R6" s="0">
-        <v>-9.7230076789860002e-07</v>
+        <v>0.00045836996287109999</v>
       </c>
       <c r="S6" s="0">
-        <v>-1.2505552149379999e-11</v>
+        <v>-2.1600499167109998e-12</v>
       </c>
       <c r="T6" s="0">
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V6" s="0">
-        <v>-1.1175870895390001e-08</v>
+        <v>5.5879354476930001e-09</v>
       </c>
       <c r="W6" s="0">
         <v>0</v>
@@ -531,70 +531,70 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0056925325188789998</v>
+        <v>0.00042495282832529999</v>
       </c>
       <c r="D7" s="0">
-        <v>0.97222573138979995</v>
+        <v>0.96118194337170004</v>
       </c>
       <c r="E7" s="0">
-        <v>-1.8222039043010001</v>
+        <v>1.5217697931230001</v>
       </c>
       <c r="F7" s="0">
-        <v>-2.8567734476469999</v>
+        <v>0.54667087014460003</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.40447951626400003</v>
+        <v>1.3733841164010001</v>
       </c>
       <c r="H7" s="0">
-        <v>-8.4289225270279998e-11</v>
+        <v>-4.1323149846490001e-10</v>
       </c>
       <c r="I7" s="0">
-        <v>-8.2907024838940001e-09</v>
+        <v>-8.2264140917379993e-09</v>
       </c>
       <c r="J7" s="0">
-        <v>4.3737536129649998e-09</v>
+        <v>5.0605679358239997e-09</v>
       </c>
       <c r="K7" s="0">
-        <v>-2.630054950714e-06</v>
+        <v>-1.4938414096829999e-06</v>
       </c>
       <c r="L7" s="0">
-        <v>3.00444662571e-06</v>
+        <v>6.3255429267879997e-06</v>
       </c>
       <c r="M7" s="0">
-        <v>326.28125</v>
+        <v>258.5625</v>
       </c>
       <c r="N7" s="0">
-        <v>-52.25</v>
+        <v>-32.1875</v>
       </c>
       <c r="O7" s="0">
-        <v>1.154839992523e-07</v>
+        <v>2.2351741790769999e-08</v>
       </c>
       <c r="P7" s="0">
-        <v>6.7055225372310006e-08</v>
+        <v>2.0489096641540001e-08</v>
       </c>
       <c r="Q7" s="0">
-        <v>5153.6536045069997</v>
+        <v>5153.7231426239996</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.000476686283946</v>
+        <v>-0.00062714656814930004</v>
       </c>
       <c r="S7" s="0">
-        <v>9.8907548817810001e-12</v>
+        <v>3.2969182939270002e-12</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
       </c>
       <c r="U7" s="0">
-        <v>122400</v>
+        <v>230400</v>
       </c>
       <c r="V7" s="0">
-        <v>-8.3819031715390006e-09</v>
+        <v>-9.3132257461550002e-09</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -605,371 +605,75 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0">
-        <v>122384</v>
+        <v>230400</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0036967458436269998</v>
+        <v>0.00330929516349</v>
       </c>
       <c r="D8" s="0">
-        <v>0.96072487217290004</v>
+        <v>0.9634687930054</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.97910242651750001</v>
+        <v>-2.5659385762700002</v>
       </c>
       <c r="F8" s="0">
-        <v>-2.0839021990969999</v>
+        <v>2.7741763863019999</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.1754217545631</v>
+        <v>-1.9492785657909999</v>
       </c>
       <c r="H8" s="0">
-        <v>7.3574493719699995e-11</v>
+        <v>2.6501103877349999e-10</v>
       </c>
       <c r="I8" s="0">
-        <v>-8.0303346194909996e-09</v>
+        <v>-8.4121361135200006e-09</v>
       </c>
       <c r="J8" s="0">
-        <v>4.430184663562e-09</v>
+        <v>4.5901911998880004e-09</v>
       </c>
       <c r="K8" s="0">
-        <v>-4.2133033275599996e-06</v>
+        <v>6.5583735704419998e-06</v>
       </c>
       <c r="L8" s="0">
-        <v>9.1064721345899998e-06</v>
+        <v>3.0715018510820002e-06</v>
       </c>
       <c r="M8" s="0">
-        <v>207.28125</v>
+        <v>321.84375</v>
       </c>
       <c r="N8" s="0">
-        <v>-79.75</v>
+        <v>128.1875</v>
       </c>
       <c r="O8" s="0">
-        <v>-3.1664967536930002e-08</v>
+        <v>-9.6857547760010004e-08</v>
       </c>
       <c r="P8" s="0">
-        <v>5.215406417847e-08</v>
+        <v>-4.8428773879999999e-08</v>
       </c>
       <c r="Q8" s="0">
-        <v>5153.6459693910001</v>
+        <v>5153.5642108920001</v>
       </c>
       <c r="R8" s="0">
-        <v>0.00036204606294630001</v>
+        <v>-0.00041618850082160002</v>
       </c>
       <c r="S8" s="0">
-        <v>-1.136868377216e-13</v>
+        <v>6.0254023992460002e-12</v>
       </c>
       <c r="T8" s="0">
         <v>0</v>
       </c>
       <c r="U8" s="0">
-        <v>122384</v>
+        <v>230400</v>
       </c>
       <c r="V8" s="0">
-        <v>-8.3819031715390006e-09</v>
+        <v>-9.7788870334629992e-09</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0">
-        <v>122400</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0.00040863861795509997</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.96192314105700005</v>
-      </c>
-      <c r="E9" s="0">
-        <v>-0.77308521787380002</v>
-      </c>
-      <c r="F9" s="0">
-        <v>-0.54608846051350002</v>
-      </c>
-      <c r="G9" s="0">
-        <v>-1.8496059471920001</v>
-      </c>
-      <c r="H9" s="0">
-        <v>1.942938074027e-10</v>
-      </c>
-      <c r="I9" s="0">
-        <v>-7.8931859257329996e-09</v>
-      </c>
-      <c r="J9" s="0">
-        <v>4.3691105624210001e-09</v>
-      </c>
-      <c r="K9" s="0">
-        <v>-3.518536686897e-06</v>
-      </c>
-      <c r="L9" s="0">
-        <v>9.8627060651780005e-06</v>
-      </c>
-      <c r="M9" s="0">
-        <v>192.59375</v>
-      </c>
-      <c r="N9" s="0">
-        <v>-67.0625</v>
-      </c>
-      <c r="O9" s="0">
-        <v>-2.7939677238460001e-08</v>
-      </c>
-      <c r="P9" s="0">
-        <v>9.3132257461550002e-09</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>5153.7257881160003</v>
-      </c>
-      <c r="R9" s="0">
-        <v>0.0003561330959201</v>
-      </c>
-      <c r="S9" s="0">
-        <v>1.045918907039e-11</v>
-      </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0">
-        <v>122400</v>
-      </c>
-      <c r="V9" s="0">
-        <v>-9.7788870334629992e-09</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>22</v>
-      </c>
-      <c r="B10" s="0">
-        <v>122400</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0.012377687147819999</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.95807844459000002</v>
-      </c>
-      <c r="E10" s="0">
-        <v>2.4369344648109999</v>
-      </c>
-      <c r="F10" s="0">
-        <v>-1.0037041823420001</v>
-      </c>
-      <c r="G10" s="0">
-        <v>2.2301120514270001</v>
-      </c>
-      <c r="H10" s="0">
-        <v>-3.1929901437130001e-10</v>
-      </c>
-      <c r="I10" s="0">
-        <v>-7.5696010185519997e-09</v>
-      </c>
-      <c r="J10" s="0">
-        <v>4.1826742251699998e-09</v>
-      </c>
-      <c r="K10" s="0">
-        <v>3.5203993320470001e-06</v>
-      </c>
-      <c r="L10" s="0">
-        <v>9.8645687103269994e-06</v>
-      </c>
-      <c r="M10" s="0">
-        <v>185.0625</v>
-      </c>
-      <c r="N10" s="0">
-        <v>67.0625</v>
-      </c>
-      <c r="O10" s="0">
-        <v>8.9406967163090001e-08</v>
-      </c>
-      <c r="P10" s="0">
-        <v>1.341104507446e-07</v>
-      </c>
-      <c r="Q10" s="0">
-        <v>5153.6381340030002</v>
-      </c>
-      <c r="R10" s="0">
-        <v>-6.9341622293000007e-05</v>
-      </c>
-      <c r="S10" s="0">
-        <v>3.7516656448130002e-12</v>
-      </c>
-      <c r="T10" s="0">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0">
-        <v>122400</v>
-      </c>
-      <c r="V10" s="0">
-        <v>-1.1175870895390001e-08</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0</v>
-      </c>
-      <c r="X10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>24</v>
-      </c>
-      <c r="B11" s="0">
-        <v>122400</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0.01778996596113</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.93430888726969996</v>
-      </c>
-      <c r="E11" s="0">
-        <v>1.1916131920440001</v>
-      </c>
-      <c r="F11" s="0">
-        <v>1.123792287945</v>
-      </c>
-      <c r="G11" s="0">
-        <v>-0.17918566430499999</v>
-      </c>
-      <c r="H11" s="0">
-        <v>-2.635824078367e-10</v>
-      </c>
-      <c r="I11" s="0">
-        <v>-8.7871517344259997e-09</v>
-      </c>
-      <c r="J11" s="0">
-        <v>5.606304953676e-09</v>
-      </c>
-      <c r="K11" s="0">
-        <v>-5.6624412536620003e-07</v>
-      </c>
-      <c r="L11" s="0">
-        <v>6.2417238950729997e-06</v>
-      </c>
-      <c r="M11" s="0">
-        <v>245.28125</v>
-      </c>
-      <c r="N11" s="0">
-        <v>-13.40625</v>
-      </c>
-      <c r="O11" s="0">
-        <v>-8.3819031715389996e-08</v>
-      </c>
-      <c r="P11" s="0">
-        <v>2.235174179077e-07</v>
-      </c>
-      <c r="Q11" s="0">
-        <v>5153.6484127040003</v>
-      </c>
-      <c r="R11" s="0">
-        <v>-0.00020110141485929999</v>
-      </c>
-      <c r="S11" s="0">
-        <v>1.409716787748e-11</v>
-      </c>
-      <c r="T11" s="0">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0">
-        <v>122400</v>
-      </c>
-      <c r="V11" s="0">
-        <v>2.3283064365389999e-09</v>
-      </c>
-      <c r="W11" s="0">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>30</v>
-      </c>
-      <c r="B12" s="0">
-        <v>122384</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0.0077581119257959996</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.93555536076739998</v>
-      </c>
-      <c r="E12" s="0">
-        <v>1.290903870528</v>
-      </c>
-      <c r="F12" s="0">
-        <v>-2.348572501209</v>
-      </c>
-      <c r="G12" s="0">
-        <v>-1.24409836249</v>
-      </c>
-      <c r="H12" s="0">
-        <v>-3.4072847842310002e-10</v>
-      </c>
-      <c r="I12" s="0">
-        <v>-8.2978456385779995e-09</v>
-      </c>
-      <c r="J12" s="0">
-        <v>5.2923633053179999e-09</v>
-      </c>
-      <c r="K12" s="0">
-        <v>-9.0524554252620001e-07</v>
-      </c>
-      <c r="L12" s="0">
-        <v>6.504356861115e-06</v>
-      </c>
-      <c r="M12" s="0">
-        <v>238.59375</v>
-      </c>
-      <c r="N12" s="0">
-        <v>-15.8125</v>
-      </c>
-      <c r="O12" s="0">
-        <v>1.9557774066929999e-07</v>
-      </c>
-      <c r="P12" s="0">
-        <v>7.2643160820009998e-08</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>5153.5685920719998</v>
-      </c>
-      <c r="R12" s="0">
-        <v>5.5850949138399998e-05</v>
-      </c>
-      <c r="S12" s="0">
-        <v>1.193711796077e-11</v>
-      </c>
-      <c r="T12" s="0">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0">
-        <v>122384</v>
-      </c>
-      <c r="V12" s="0">
-        <v>4.1909515857699999e-09</v>
-      </c>
-      <c r="W12" s="0">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0">
         <v>0</v>
       </c>
     </row>
